--- a/PhoenixCI/Excel_Template/30540.xlsx
+++ b/PhoenixCI/Excel_Template/30540.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25BA32B6-1BCD-47C0-A5E3-84D644A02C92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D51E97-8C61-4AFA-9E9A-F5D836394BB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="12390" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="30540" sheetId="20" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -530,14 +529,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -547,17 +546,17 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -577,8 +576,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -604,10 +603,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="23" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -622,7 +621,7 @@
     <xf numFmtId="200" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="23" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -640,10 +639,16 @@
     <xf numFmtId="200" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="200" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="200" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="200" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="200" fontId="23" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1103,28 +1108,28 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" s="13" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A6" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="55" t="s">
+      <c r="A6" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="55" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57" t="s">
+      <c r="E6" s="58"/>
+      <c r="F6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
     </row>
     <row r="7" spans="1:9" s="13" customFormat="1" ht="27">
-      <c r="A7" s="54"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1142,7 @@
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1491,8 +1496,8 @@
       <c r="D32" s="44"/>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
       <c r="I32" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1505,8 +1510,8 @@
       <c r="D33" s="44"/>
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
       <c r="I33" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1519,8 +1524,8 @@
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
       <c r="I34" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1533,8 +1538,8 @@
       <c r="D35" s="44"/>
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
       <c r="I35" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1547,8 +1552,8 @@
       <c r="D36" s="44"/>
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
       <c r="I36" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1556,14 +1561,14 @@
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="32"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="47">
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1665,17 +1670,17 @@
       <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:9" s="2" customFormat="1">
-      <c r="A47" s="48">
+      <c r="A47" s="50">
         <v>53</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4"/>

--- a/PhoenixCI/Excel_Template/30540.xlsx
+++ b/PhoenixCI/Excel_Template/30540.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D51E97-8C61-4AFA-9E9A-F5D836394BB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25BA32B6-1BCD-47C0-A5E3-84D644A02C92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="12390" windowHeight="9000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="30540" sheetId="20" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -529,14 +530,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -546,17 +547,17 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,8 +577,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -603,10 +604,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="23" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -621,7 +622,7 @@
     <xf numFmtId="200" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="23" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -639,16 +640,10 @@
     <xf numFmtId="200" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="200" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="200" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="200" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="200" fontId="23" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1108,28 +1103,28 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" s="13" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A6" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="56"/>
+      <c r="D6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:9" s="13" customFormat="1" ht="27">
-      <c r="A7" s="56"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1142,7 +1137,7 @@
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1496,8 +1491,8 @@
       <c r="D32" s="44"/>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
       <c r="I32" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1510,8 +1505,8 @@
       <c r="D33" s="44"/>
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1524,8 +1519,8 @@
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
       <c r="I34" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1538,8 +1533,8 @@
       <c r="D35" s="44"/>
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
       <c r="I35" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1552,8 +1547,8 @@
       <c r="D36" s="44"/>
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
       <c r="I36" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1561,14 +1556,14 @@
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="32"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49">
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1670,17 +1665,17 @@
       <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:9" s="2" customFormat="1">
-      <c r="A47" s="50">
+      <c r="A47" s="48">
         <v>53</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4"/>
